--- a/Code/Results/Cases/Case_9_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020194036539631</v>
+        <v>1.018316877704137</v>
       </c>
       <c r="D2">
-        <v>1.040279835003629</v>
+        <v>1.03775326562354</v>
       </c>
       <c r="E2">
-        <v>1.033397919780789</v>
+        <v>1.031788889027276</v>
       </c>
       <c r="F2">
-        <v>1.043598837773557</v>
+        <v>1.041830254500806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05696444822324</v>
+        <v>1.055681124475862</v>
       </c>
       <c r="J2">
-        <v>1.041787078818786</v>
+        <v>1.039963203635259</v>
       </c>
       <c r="K2">
-        <v>1.05120514251724</v>
+        <v>1.048710548039756</v>
       </c>
       <c r="L2">
-        <v>1.044410779926906</v>
+        <v>1.042822430135899</v>
       </c>
       <c r="M2">
-        <v>1.054482435110234</v>
+        <v>1.052736036513403</v>
       </c>
       <c r="N2">
-        <v>1.017122076050766</v>
+        <v>1.017371780946807</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.05169149805333</v>
+        <v>1.050309360411938</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047276702555297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045521523945262</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024808696431222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024839069439338</v>
+        <v>1.02264960104943</v>
       </c>
       <c r="D3">
-        <v>1.04354280272374</v>
+        <v>1.040686211193843</v>
       </c>
       <c r="E3">
-        <v>1.037060847758206</v>
+        <v>1.035172921047931</v>
       </c>
       <c r="F3">
-        <v>1.047005090474445</v>
+        <v>1.044976712203183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058136196946966</v>
+        <v>1.056683758833797</v>
       </c>
       <c r="J3">
-        <v>1.044674761464448</v>
+        <v>1.042541297448809</v>
       </c>
       <c r="K3">
-        <v>1.053647284629175</v>
+        <v>1.050823682609993</v>
       </c>
       <c r="L3">
-        <v>1.047240510557683</v>
+        <v>1.045374700041226</v>
       </c>
       <c r="M3">
-        <v>1.057069885710316</v>
+        <v>1.055064718457792</v>
       </c>
       <c r="N3">
-        <v>1.018148430222746</v>
+        <v>1.018087967352337</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053739257775441</v>
+        <v>1.052152329128763</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.049000838867174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047012750317098</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025281545361094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027784993452293</v>
+        <v>1.025400049605083</v>
       </c>
       <c r="D4">
-        <v>1.045613925252743</v>
+        <v>1.04254964923216</v>
       </c>
       <c r="E4">
-        <v>1.039389694189369</v>
+        <v>1.037327026119122</v>
       </c>
       <c r="F4">
-        <v>1.04917154831719</v>
+        <v>1.046980095894443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058865378613355</v>
+        <v>1.057306296935509</v>
       </c>
       <c r="J4">
-        <v>1.046503705047307</v>
+        <v>1.044175604042301</v>
       </c>
       <c r="K4">
-        <v>1.055191318271121</v>
+        <v>1.052160290224445</v>
       </c>
       <c r="L4">
-        <v>1.049034873438963</v>
+        <v>1.04699488977415</v>
       </c>
       <c r="M4">
-        <v>1.058710638975851</v>
+        <v>1.056542742601115</v>
       </c>
       <c r="N4">
-        <v>1.018798150639193</v>
+        <v>1.018542017890876</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055037779575177</v>
+        <v>1.053322066715078</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050093461718133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047958791607154</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025578260414853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029014852020983</v>
+        <v>1.026548474360463</v>
       </c>
       <c r="D5">
-        <v>1.046480554540194</v>
+        <v>1.0433297948332</v>
       </c>
       <c r="E5">
-        <v>1.040364183847774</v>
+        <v>1.038228610002504</v>
       </c>
       <c r="F5">
-        <v>1.050077935568591</v>
+        <v>1.047818522674749</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059167797063572</v>
+        <v>1.057564256900522</v>
       </c>
       <c r="J5">
-        <v>1.047268470817654</v>
+        <v>1.044859107034774</v>
       </c>
       <c r="K5">
-        <v>1.055837221426203</v>
+        <v>1.052719735627908</v>
       </c>
       <c r="L5">
-        <v>1.049785668700231</v>
+        <v>1.04767294685512</v>
       </c>
       <c r="M5">
-        <v>1.059396910202781</v>
+        <v>1.057161133799029</v>
       </c>
       <c r="N5">
-        <v>1.019071218106949</v>
+        <v>1.018732858630085</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055580906373258</v>
+        <v>1.053811473221108</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050557228630044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048362143203262</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025702726924668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029226867333882</v>
+        <v>1.02674598056295</v>
       </c>
       <c r="D6">
-        <v>1.046631940226279</v>
+        <v>1.043466111771836</v>
       </c>
       <c r="E6">
-        <v>1.040533350048563</v>
+        <v>1.038384692711362</v>
       </c>
       <c r="F6">
-        <v>1.050234879939393</v>
+        <v>1.047963449382169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059221443739907</v>
+        <v>1.057610157080238</v>
       </c>
       <c r="J6">
-        <v>1.047402515003877</v>
+        <v>1.044978680048753</v>
       </c>
       <c r="K6">
-        <v>1.055951531734793</v>
+        <v>1.052818982670487</v>
       </c>
       <c r="L6">
-        <v>1.049917271437883</v>
+        <v>1.047791499226289</v>
       </c>
       <c r="M6">
-        <v>1.059516895161725</v>
+        <v>1.057269117361939</v>
       </c>
       <c r="N6">
-        <v>1.019120867987221</v>
+        <v>1.01876738536603</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055675864484107</v>
+        <v>1.053896933425454</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050646674860893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048441813651875</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025725807056099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027818527659558</v>
+        <v>1.02544092298314</v>
       </c>
       <c r="D7">
-        <v>1.045642790959187</v>
+        <v>1.042583400183235</v>
       </c>
       <c r="E7">
-        <v>1.039419238692318</v>
+        <v>1.037362828059408</v>
       </c>
       <c r="F7">
-        <v>1.049197877546895</v>
+        <v>1.047011374750467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058878222902879</v>
+        <v>1.057321620068846</v>
       </c>
       <c r="J7">
-        <v>1.046530601930149</v>
+        <v>1.044209639076941</v>
       </c>
       <c r="K7">
-        <v>1.055217044647206</v>
+        <v>1.052190835370698</v>
       </c>
       <c r="L7">
-        <v>1.049061244035109</v>
+        <v>1.047027439718714</v>
       </c>
       <c r="M7">
-        <v>1.058733871358721</v>
+        <v>1.056570862024531</v>
       </c>
       <c r="N7">
-        <v>1.018812653792101</v>
+        <v>1.018581687363389</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055056166087069</v>
+        <v>1.053344320966217</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050131487455725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048002236830075</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025589160439943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021798134809256</v>
+        <v>1.019844459440158</v>
       </c>
       <c r="D8">
-        <v>1.041412616921832</v>
+        <v>1.038794980142586</v>
       </c>
       <c r="E8">
-        <v>1.034665550396533</v>
+        <v>1.03298793011157</v>
       </c>
       <c r="F8">
-        <v>1.044775831545719</v>
+        <v>1.042939767183489</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057377480985648</v>
+        <v>1.056047442376789</v>
       </c>
       <c r="J8">
-        <v>1.042792376529404</v>
+        <v>1.040892269086035</v>
       </c>
       <c r="K8">
-        <v>1.052059391872431</v>
+        <v>1.049473890858163</v>
       </c>
       <c r="L8">
-        <v>1.045395568374395</v>
+        <v>1.043738856360012</v>
       </c>
       <c r="M8">
-        <v>1.055381611216901</v>
+        <v>1.053567886487466</v>
       </c>
       <c r="N8">
-        <v>1.017485937263109</v>
+        <v>1.017716598961232</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.052403124488894</v>
+        <v>1.050967704800764</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04790334451839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046086168100824</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024987712798402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010680173566868</v>
+        <v>1.009497581950995</v>
       </c>
       <c r="D9">
-        <v>1.033608935782303</v>
+        <v>1.031795935436993</v>
       </c>
       <c r="E9">
-        <v>1.025930074953719</v>
+        <v>1.024940094021831</v>
       </c>
       <c r="F9">
-        <v>1.036658772184657</v>
+        <v>1.035460141533816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054490297562598</v>
+        <v>1.053571237989783</v>
       </c>
       <c r="J9">
-        <v>1.035861343635836</v>
+        <v>1.034719357028161</v>
       </c>
       <c r="K9">
-        <v>1.046179289328177</v>
+        <v>1.044393380899754</v>
       </c>
       <c r="L9">
-        <v>1.038616010934868</v>
+        <v>1.037641091899623</v>
       </c>
       <c r="M9">
-        <v>1.049183823269629</v>
+        <v>1.048002956691625</v>
       </c>
       <c r="N9">
-        <v>1.015015276033725</v>
+        <v>1.016009293824688</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047498054075549</v>
+        <v>1.046563485721614</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043742654993278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042490561419812</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023835210857904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003011749565438</v>
+        <v>1.002416316366682</v>
       </c>
       <c r="D10">
-        <v>1.028256938195295</v>
+        <v>1.027037538592338</v>
       </c>
       <c r="E10">
-        <v>1.019972368566222</v>
+        <v>1.01950259755244</v>
       </c>
       <c r="F10">
-        <v>1.031152910722967</v>
+        <v>1.030431768822232</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052446440405718</v>
+        <v>1.05182922582298</v>
       </c>
       <c r="J10">
-        <v>1.0311063821924</v>
+        <v>1.030534392569585</v>
       </c>
       <c r="K10">
-        <v>1.042134083047004</v>
+        <v>1.040935198822243</v>
       </c>
       <c r="L10">
-        <v>1.033990142153851</v>
+        <v>1.033528433908836</v>
       </c>
       <c r="M10">
-        <v>1.044981583772624</v>
+        <v>1.044272479273147</v>
       </c>
       <c r="N10">
-        <v>1.013343407325612</v>
+        <v>1.014983947810697</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044223369922978</v>
+        <v>1.043662198445768</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040899149019183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040063806089041</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023056243228831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000401215037967</v>
+        <v>0.9999932129380589</v>
       </c>
       <c r="D11">
-        <v>1.026554716372381</v>
+        <v>1.025536111149961</v>
       </c>
       <c r="E11">
-        <v>1.01820314780539</v>
+        <v>1.017882337933631</v>
       </c>
       <c r="F11">
-        <v>1.02972007023094</v>
+        <v>1.029151365565119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051862479756628</v>
+        <v>1.051347219121159</v>
       </c>
       <c r="J11">
-        <v>1.02975731251555</v>
+        <v>1.029366274262763</v>
       </c>
       <c r="K11">
-        <v>1.040992642792314</v>
+        <v>1.039992003339449</v>
       </c>
       <c r="L11">
-        <v>1.032789754633513</v>
+        <v>1.032474719284051</v>
       </c>
       <c r="M11">
-        <v>1.044102461163561</v>
+        <v>1.043543701692718</v>
       </c>
       <c r="N11">
-        <v>1.013062282862875</v>
+        <v>1.015014366263463</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043961113914054</v>
+        <v>1.043519142052387</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040124721179948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039432768629549</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022935294183975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996982290585456</v>
+        <v>0.9993127127946656</v>
       </c>
       <c r="D12">
-        <v>1.026144910502304</v>
+        <v>1.025164278674643</v>
       </c>
       <c r="E12">
-        <v>1.017843679607311</v>
+        <v>1.017528703945176</v>
       </c>
       <c r="F12">
-        <v>1.029536438738813</v>
+        <v>1.028988402992052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051756461654603</v>
+        <v>1.051260518688263</v>
       </c>
       <c r="J12">
-        <v>1.029515365865958</v>
+        <v>1.029146188358477</v>
       </c>
       <c r="K12">
-        <v>1.04078779072494</v>
+        <v>1.039824745223474</v>
       </c>
       <c r="L12">
-        <v>1.032636825489035</v>
+        <v>1.032327614262045</v>
       </c>
       <c r="M12">
-        <v>1.044118831585388</v>
+        <v>1.043580534917001</v>
       </c>
       <c r="N12">
-        <v>1.013124310202252</v>
+        <v>1.015142649193007</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044298593653985</v>
+        <v>1.043872950153014</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039979885993098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039314515487049</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022959035010493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000444942106939</v>
+        <v>0.9999372287065905</v>
       </c>
       <c r="D13">
-        <v>1.026729616862297</v>
+        <v>1.025650395525725</v>
       </c>
       <c r="E13">
-        <v>1.018571589827373</v>
+        <v>1.01813642855698</v>
       </c>
       <c r="F13">
-        <v>1.030332137469856</v>
+        <v>1.029691578772458</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052030551956979</v>
+        <v>1.051484712354237</v>
       </c>
       <c r="J13">
-        <v>1.030137930913315</v>
+        <v>1.029651614607379</v>
       </c>
       <c r="K13">
-        <v>1.041319654601383</v>
+        <v>1.040259696973578</v>
       </c>
       <c r="L13">
-        <v>1.033308562276239</v>
+        <v>1.032881324812568</v>
       </c>
       <c r="M13">
-        <v>1.044858250441258</v>
+        <v>1.044229015701012</v>
       </c>
       <c r="N13">
-        <v>1.013470863123021</v>
+        <v>1.015327478722088</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045158466894792</v>
+        <v>1.044661040384187</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040353451102873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039619312774978</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023104045000865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001622035835436</v>
+        <v>1.000966142469788</v>
       </c>
       <c r="D14">
-        <v>1.02758860594448</v>
+        <v>1.026380669101304</v>
       </c>
       <c r="E14">
-        <v>1.019570963906937</v>
+        <v>1.01899800799821</v>
       </c>
       <c r="F14">
-        <v>1.031330961320181</v>
+        <v>1.030576790350289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05239389291707</v>
+        <v>1.051782845106834</v>
       </c>
       <c r="J14">
-        <v>1.030963049415803</v>
+        <v>1.030334380644804</v>
       </c>
       <c r="K14">
-        <v>1.042024656472144</v>
+        <v>1.040838001960031</v>
       </c>
       <c r="L14">
-        <v>1.034149501022767</v>
+        <v>1.033586839023011</v>
       </c>
       <c r="M14">
-        <v>1.045701486030628</v>
+        <v>1.044960470438619</v>
       </c>
       <c r="N14">
-        <v>1.013840984917846</v>
+        <v>1.015484683420099</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045997532449596</v>
+        <v>1.045411818630037</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040853318293396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040029733541355</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023261326027997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002234239335299</v>
+        <v>1.001510252252481</v>
       </c>
       <c r="D15">
-        <v>1.028024983083462</v>
+        <v>1.026755485400479</v>
       </c>
       <c r="E15">
-        <v>1.020063584473075</v>
+        <v>1.019429320284398</v>
       </c>
       <c r="F15">
-        <v>1.031803189174267</v>
+        <v>1.030996346488389</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052570591818318</v>
+        <v>1.051928335361224</v>
       </c>
       <c r="J15">
-        <v>1.031363837591099</v>
+        <v>1.030669628174566</v>
       </c>
       <c r="K15">
-        <v>1.042367955133052</v>
+        <v>1.041120649351326</v>
       </c>
       <c r="L15">
-        <v>1.034546913654584</v>
+        <v>1.033923953763494</v>
       </c>
       <c r="M15">
-        <v>1.046080532939325</v>
+        <v>1.045287653027776</v>
       </c>
       <c r="N15">
-        <v>1.013999508819961</v>
+        <v>1.015543152454094</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046334502710909</v>
+        <v>1.045707810610524</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041101864529933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04023596680643</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023330638577042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005351384167756</v>
+        <v>1.004329560739124</v>
       </c>
       <c r="D16">
-        <v>1.030194957882982</v>
+        <v>1.028640882972835</v>
       </c>
       <c r="E16">
-        <v>1.022457835750168</v>
+        <v>1.021564639430131</v>
       </c>
       <c r="F16">
-        <v>1.034013219478824</v>
+        <v>1.03297194191898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053408834458652</v>
+        <v>1.0526221346166</v>
       </c>
       <c r="J16">
-        <v>1.033278169067385</v>
+        <v>1.032296208942031</v>
       </c>
       <c r="K16">
-        <v>1.044004483992797</v>
+        <v>1.042476363411165</v>
       </c>
       <c r="L16">
-        <v>1.036397586983233</v>
+        <v>1.035519588251587</v>
       </c>
       <c r="M16">
-        <v>1.047759403824086</v>
+        <v>1.046735340413226</v>
       </c>
       <c r="N16">
-        <v>1.014647497397751</v>
+        <v>1.015761180247571</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047622958577779</v>
+        <v>1.046813515769364</v>
       </c>
       <c r="Q16">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042262066430426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041197920223291</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023626255449936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007127006121486</v>
+        <v>1.005965459234491</v>
       </c>
       <c r="D17">
-        <v>1.031410041063151</v>
+        <v>1.02971293207908</v>
       </c>
       <c r="E17">
-        <v>1.02377272777086</v>
+        <v>1.022761763286734</v>
       </c>
       <c r="F17">
-        <v>1.035182390768216</v>
+        <v>1.034028079670744</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053857942209476</v>
+        <v>1.052998514795918</v>
       </c>
       <c r="J17">
-        <v>1.03431403242873</v>
+        <v>1.033196308211344</v>
       </c>
       <c r="K17">
-        <v>1.044888874896918</v>
+        <v>1.043219298865866</v>
       </c>
       <c r="L17">
-        <v>1.037376390134465</v>
+        <v>1.03638212924929</v>
       </c>
       <c r="M17">
-        <v>1.048600438818696</v>
+        <v>1.047464667303866</v>
       </c>
       <c r="N17">
-        <v>1.014951221740017</v>
+        <v>1.015876239147124</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048159408510329</v>
+        <v>1.047261580198593</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042889914548483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041726001414457</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023771641630957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007888930890974</v>
+        <v>1.006701239164795</v>
       </c>
       <c r="D18">
-        <v>1.031887785022979</v>
+        <v>1.030149844301889</v>
       </c>
       <c r="E18">
-        <v>1.024243857279122</v>
+        <v>1.023218229053216</v>
       </c>
       <c r="F18">
-        <v>1.035517569132465</v>
+        <v>1.034338058092067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054001886557434</v>
+        <v>1.05312159588803</v>
       </c>
       <c r="J18">
-        <v>1.034657181473693</v>
+        <v>1.03351345052195</v>
       </c>
       <c r="K18">
-        <v>1.045177894466262</v>
+        <v>1.043467683519148</v>
       </c>
       <c r="L18">
-        <v>1.037656832788323</v>
+        <v>1.036647869613643</v>
       </c>
       <c r="M18">
-        <v>1.04875014774279</v>
+        <v>1.047589274836869</v>
       </c>
       <c r="N18">
-        <v>1.014966189679351</v>
+        <v>1.01585962243665</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048041569294112</v>
+        <v>1.047123709069546</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043082723718857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04188894019137</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023786401629111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007745802378523</v>
+        <v>1.006625832229617</v>
       </c>
       <c r="D19">
-        <v>1.031712150680018</v>
+        <v>1.030020549834405</v>
       </c>
       <c r="E19">
-        <v>1.023961650927683</v>
+        <v>1.023006762341611</v>
       </c>
       <c r="F19">
-        <v>1.035104935687161</v>
+        <v>1.033974142439831</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05387929699548</v>
+        <v>1.053022426309206</v>
       </c>
       <c r="J19">
-        <v>1.034386406753016</v>
+        <v>1.033307661383186</v>
       </c>
       <c r="K19">
-        <v>1.044943324096077</v>
+        <v>1.043278580197133</v>
       </c>
       <c r="L19">
-        <v>1.037316810799763</v>
+        <v>1.036377364665007</v>
       </c>
       <c r="M19">
-        <v>1.048282581603247</v>
+        <v>1.047169578772223</v>
       </c>
       <c r="N19">
-        <v>1.014736287666518</v>
+        <v>1.015713434798228</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047348685443455</v>
+        <v>1.046468390609866</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042923216381425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041762206832548</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023687609933697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005051331128897</v>
+        <v>1.004261924250545</v>
       </c>
       <c r="D20">
-        <v>1.029691945323761</v>
+        <v>1.028289371213265</v>
       </c>
       <c r="E20">
-        <v>1.021564751192208</v>
+        <v>1.020921600042877</v>
       </c>
       <c r="F20">
-        <v>1.032621451750826</v>
+        <v>1.031746765776471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053005855618551</v>
+        <v>1.052295651474535</v>
       </c>
       <c r="J20">
-        <v>1.032388911608126</v>
+        <v>1.031629538711713</v>
       </c>
       <c r="K20">
-        <v>1.043232045158369</v>
+        <v>1.041852379782153</v>
       </c>
       <c r="L20">
-        <v>1.035238720714445</v>
+        <v>1.034606280668339</v>
       </c>
       <c r="M20">
-        <v>1.046113960654183</v>
+        <v>1.045253447939551</v>
       </c>
       <c r="N20">
-        <v>1.01381044119838</v>
+        <v>1.015189717558321</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045109044275146</v>
+        <v>1.044428043428869</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041717193392683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040758138216618</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023267714063425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9991182211781539</v>
+        <v>0.9989600813988645</v>
       </c>
       <c r="D21">
-        <v>1.025532489943771</v>
+        <v>1.024713232987663</v>
       </c>
       <c r="E21">
-        <v>1.016919601111591</v>
+        <v>1.016842089645625</v>
       </c>
       <c r="F21">
-        <v>1.028290927393192</v>
+        <v>1.027911357474481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051374844572664</v>
+        <v>1.050960464735236</v>
       </c>
       <c r="J21">
-        <v>1.028652855519576</v>
+        <v>1.028501345616649</v>
       </c>
       <c r="K21">
-        <v>1.040045766201879</v>
+        <v>1.039241058883085</v>
       </c>
       <c r="L21">
-        <v>1.031587363261324</v>
+        <v>1.03151125754281</v>
       </c>
       <c r="M21">
-        <v>1.042755436003528</v>
+        <v>1.042382556535111</v>
       </c>
       <c r="N21">
-        <v>1.012459394214129</v>
+        <v>1.014756342282218</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042410447724191</v>
+        <v>1.042115339345226</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039467628923097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038915424091121</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022678933593706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9953297201106978</v>
+        <v>0.9955750898598058</v>
       </c>
       <c r="D22">
-        <v>1.02288359515643</v>
+        <v>1.022436797380339</v>
       </c>
       <c r="E22">
-        <v>1.013973791178845</v>
+        <v>1.014258129584313</v>
       </c>
       <c r="F22">
-        <v>1.025560889273365</v>
+        <v>1.025497891818242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050323645358846</v>
+        <v>1.050097810543432</v>
       </c>
       <c r="J22">
-        <v>1.02627627385094</v>
+        <v>1.026510732712209</v>
       </c>
       <c r="K22">
-        <v>1.038014957431314</v>
+        <v>1.037576506310972</v>
       </c>
       <c r="L22">
-        <v>1.029273415886704</v>
+        <v>1.029552324786879</v>
       </c>
       <c r="M22">
-        <v>1.040642435536979</v>
+        <v>1.04058060636919</v>
       </c>
       <c r="N22">
-        <v>1.011604416950486</v>
+        <v>1.014478149683702</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040738152014076</v>
+        <v>1.040689218387798</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038018359275704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037723817506386</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022304486255633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9973295582512338</v>
+        <v>0.9973449160303486</v>
       </c>
       <c r="D23">
-        <v>1.024277213876069</v>
+        <v>1.023621080868452</v>
       </c>
       <c r="E23">
-        <v>1.015524508316046</v>
+        <v>1.015602506811228</v>
       </c>
       <c r="F23">
-        <v>1.026999589120133</v>
+        <v>1.02675721844017</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050876360796297</v>
+        <v>1.050544596631968</v>
       </c>
       <c r="J23">
-        <v>1.02752523924885</v>
+        <v>1.027539934931479</v>
       </c>
       <c r="K23">
-        <v>1.039080559764041</v>
+        <v>1.038436362497638</v>
       </c>
       <c r="L23">
-        <v>1.03048873091401</v>
+        <v>1.030565279806547</v>
       </c>
       <c r="M23">
-        <v>1.041753623967906</v>
+        <v>1.041515629620321</v>
       </c>
       <c r="N23">
-        <v>1.012048108704506</v>
+        <v>1.014572144656486</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041617582328245</v>
+        <v>1.041429226026122</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038762194309776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038321235973563</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02249260348655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005045586955926</v>
+        <v>1.004267191241619</v>
       </c>
       <c r="D24">
-        <v>1.029670046904774</v>
+        <v>1.028274000079099</v>
       </c>
       <c r="E24">
-        <v>1.021531177951072</v>
+        <v>1.020899860488238</v>
       </c>
       <c r="F24">
-        <v>1.032572326304031</v>
+        <v>1.03170547332085</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052986651342918</v>
+        <v>1.052279741494397</v>
       </c>
       <c r="J24">
-        <v>1.032350785071604</v>
+        <v>1.031601962883931</v>
       </c>
       <c r="K24">
-        <v>1.043195415068082</v>
+        <v>1.041822142269342</v>
       </c>
       <c r="L24">
-        <v>1.035190445855011</v>
+        <v>1.034569629675201</v>
       </c>
       <c r="M24">
-        <v>1.046050601933513</v>
+        <v>1.045197778920175</v>
       </c>
       <c r="N24">
-        <v>1.013771273607547</v>
+        <v>1.015162983366518</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045018339064896</v>
+        <v>1.044343390715192</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041664102661406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040706888087098</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023248553348174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013643225542024</v>
+        <v>1.012235819069149</v>
       </c>
       <c r="D25">
-        <v>1.035694091109825</v>
+        <v>1.033654063352113</v>
       </c>
       <c r="E25">
-        <v>1.028257478370749</v>
+        <v>1.027066652486291</v>
       </c>
       <c r="F25">
-        <v>1.038818139669087</v>
+        <v>1.03743627980882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055278712121333</v>
+        <v>1.054243951015687</v>
       </c>
       <c r="J25">
-        <v>1.037720005545332</v>
+        <v>1.036358300964871</v>
       </c>
       <c r="K25">
-        <v>1.047762465985876</v>
+        <v>1.045751477848881</v>
       </c>
       <c r="L25">
-        <v>1.04043241683848</v>
+        <v>1.03925883670611</v>
       </c>
       <c r="M25">
-        <v>1.050842323341213</v>
+        <v>1.049479969073738</v>
       </c>
       <c r="N25">
-        <v>1.015686829531669</v>
+        <v>1.01643578228419</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048810631936882</v>
+        <v>1.047732431339541</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044890344534381</v>
+        <v>1.043481919946326</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024148343741165</v>
       </c>
     </row>
   </sheetData>
